--- a/data/cva/raw/gulf_of_mexico/Quinlan_etal_2023_tables.xlsx
+++ b/data/cva/raw/gulf_of_mexico/Quinlan_etal_2023_tables.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/gulf_of_mexico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDD6178-BA72-A24E-B5DA-BF367AF640D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE2B014-FF95-084F-89CD-456892A22AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27600" yWindow="1940" windowWidth="24800" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="25700" windowHeight="20200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Figure 8" sheetId="2" r:id="rId2"/>
+    <sheet name="Figure 10" sheetId="3" r:id="rId3"/>
+    <sheet name="Figure 13" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$C$76</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="307">
   <si>
     <r>
       <rPr>
@@ -1982,13 +1984,178 @@
   </si>
   <si>
     <t>Bonnethead shark</t>
+  </si>
+  <si>
+    <t>dist_change</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern stingray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheepshead </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hogfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusky shark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellowedge grouper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow stingray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurse shark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarpon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden tilefish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue crab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blacktip shark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomtate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiger shark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red drum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulf menhaden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellowtail snapper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">White shrimp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red snapper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lane snapper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic stingray </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiny lobster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish mackerel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blacknose shark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vermilion snapper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutton snapper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluefish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flyingfishes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray triggerfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Striped mullet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal red shrimp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolphin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchovies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stone crab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pink shrimp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cero mackerel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almaco jack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banded rudderfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic croaker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballyhoo </t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotted seatrout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finetooth shark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butterfish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida pompano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic sharpnose shark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesser amberjack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater amberjack </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandbar shark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenchman </t>
+  </si>
+  <si>
+    <t>dir_effect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2005,6 +2172,33 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0C0E09"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2027,11 +2221,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2052,9 +2258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2092,9 +2298,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2127,26 +2333,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2179,26 +2368,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3224,7 +3396,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C76" xr:uid="{F4B887D9-1DAE-144A-B1B9-EB1D96C271CE}">
-    <sortState ref="A2:C76">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C76">
       <sortCondition ref="C1:C76"/>
     </sortState>
   </autoFilter>
@@ -3236,7 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E7590-D6D8-1143-ADE6-83F5CD641E72}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -4544,4 +4716,1259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B49A71-B21B-9F4E-A6FD-CD717EE9BB47}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4786387-23AA-E84D-8C49-9DA2AF2A7997}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>